--- a/documentation/burndown.xlsx
+++ b/documentation/burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fatec\4-Semestre\ABP\AZIMUTH\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FATEC\ABP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323EA63-486D-4C2B-B398-4238D6DB771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCB561-13D8-4AA7-92E0-1ECBA7488BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>Total de Pokers</t>
   </si>
@@ -159,13 +159,100 @@
   </si>
   <si>
     <t>Elaboração do vídeo da sprint 1</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do backend considerando acesso de usuários e leituras de boias</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do banco de dados para receber os dados das boias</t>
+  </si>
+  <si>
+    <t>Configuração e programação do sensor de GPS na placa SPE-32</t>
+  </si>
+  <si>
+    <t>Ajustes no repositório e inclusão de arquivos de documentação como README e licenças.</t>
+  </si>
+  <si>
+    <t>Definição e priorização das funcionalidades e tarefas a serem realizadas nas sprints seguintes.</t>
+  </si>
+  <si>
+    <t>Criação do gráfico Burndown para acompanhamento do progresso das tarefas ao longo da sprint.</t>
+  </si>
+  <si>
+    <t>Produção de documentos técnicos e descritivos sobre o andamento do projeto e decisões tomadas.</t>
+  </si>
+  <si>
+    <t>Gravação e edição de vídeo apresentando as entregas e aprendizados da Sprint 1.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do frontend para elaboração das telas de login</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do frontend para elaboração das telas das boias vinculadas a api de mapas</t>
+  </si>
+  <si>
+    <t>Vicular o frontend e backend</t>
+  </si>
+  <si>
+    <t>Finalização das funcionalidades e tarefas a serem realizadas na sprint.</t>
+  </si>
+  <si>
+    <t>Gravação e edição de vídeo apresentando as entregas e aprendizados da Sprint 3.</t>
+  </si>
+  <si>
+    <t>Item 2.1</t>
+  </si>
+  <si>
+    <t>Item 2.2</t>
+  </si>
+  <si>
+    <t>Item 2.3</t>
+  </si>
+  <si>
+    <t>Item 2.4</t>
+  </si>
+  <si>
+    <t>Item 2.5</t>
+  </si>
+  <si>
+    <t>Item 2.6</t>
+  </si>
+  <si>
+    <t>Item 2.7</t>
+  </si>
+  <si>
+    <t>Item 2.8</t>
+  </si>
+  <si>
+    <t>Item 3.1</t>
+  </si>
+  <si>
+    <t>Item 3.2</t>
+  </si>
+  <si>
+    <t>Item 3.3</t>
+  </si>
+  <si>
+    <t>Item 3.4</t>
+  </si>
+  <si>
+    <t>Item 3.5</t>
+  </si>
+  <si>
+    <t>Item 3.6</t>
+  </si>
+  <si>
+    <t>Item 3.7</t>
+  </si>
+  <si>
+    <t>Item 3.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,11 +345,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,37 +914,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,34 +989,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1225,7 +1312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$B$13</c:f>
+              <c:f>'Sprint 3'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,42 +1335,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$C$13:$M$13</c:f>
+              <c:f>'Sprint 3'!$C$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1387,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$B$14</c:f>
+              <c:f>'Sprint 3'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1323,39 +1410,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$C$14:$M$14</c:f>
+              <c:f>'Sprint 3'!$C$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.6</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.2</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.799999999999997</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.4</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.200000000000003</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44.800000000000004</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-50.400000000000006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3296,7 +3383,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3592,55 +3679,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3684,8 +3771,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3708,7 +3795,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -3734,8 +3821,8 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3757,7 +3844,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -3783,8 +3870,8 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3821,8 +3908,8 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3855,8 +3942,8 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3883,8 +3970,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3927,8 +4014,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:14" ht="15">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3971,8 +4058,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:14" ht="15">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -4001,8 +4088,8 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:14" ht="15">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4027,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -4081,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -4142,6 +4229,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4151,52 +4241,52 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4237,43 +4327,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="1:13" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:13" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4281,10 +4415,16 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4293,13 +4433,460 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:13" ht="45">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM(C4:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <f>IF(SUM(D$4:D$11)&gt;0, C$12-SUM(D$4:D$11), NA())</f>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:M12" si="0">IF(SUM(E$4:E$11)&gt;0, D$12-SUM(E$4:E$11), NA())</f>
+        <v>48</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM(C4:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM(C13-($C$13/10))</f>
+        <v>54</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:M13" si="1">SUM(D13-($C$13/10))</f>
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CBCA46-60F9-42C6-B53E-F5A57A8DA207}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.6">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4309,41 +4896,88 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+    <row r="9" spans="1:13" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -4352,96 +4986,110 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.6">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C4:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <f>IF(SUM(D$4:D$11)&gt;0, C$12-SUM(D$4:D$11), NA())</f>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4">
+        <f>IF(SUM(E$4:E$11)&gt;0, D$12-SUM(E$4:E$11), NA())</f>
+        <v>47</v>
+      </c>
+      <c r="F12" s="4">
+        <f>IF(SUM(F$4:F$11)&gt;0, E$12-SUM(F$4:F$11), NA())</f>
+        <v>42</v>
+      </c>
+      <c r="G12" s="4">
+        <f>IF(SUM(G$4:G$11)&gt;0, F$12-SUM(G$4:G$11), NA())</f>
+        <v>36</v>
+      </c>
+      <c r="H12" s="4">
+        <f>IF(SUM(H$4:H$11)&gt;0, G$12-SUM(H$4:H$11), NA())</f>
+        <v>31</v>
+      </c>
+      <c r="I12" s="4">
+        <f>IF(SUM(I$4:I$11)&gt;0, H$12-SUM(I$4:I$11), NA())</f>
+        <v>24</v>
+      </c>
+      <c r="J12" s="4">
+        <f>IF(SUM(J$4:J$11)&gt;0, I$12-SUM(J$4:J$11), NA())</f>
+        <v>21</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IF(SUM(K$4:K$11)&gt;0, J$12-SUM(K$4:K$11), NA())</f>
+        <v>18</v>
+      </c>
+      <c r="L12" s="4">
+        <f>IF(SUM(L$4:L$11)&gt;0, K$12-SUM(L$4:L$11), NA())</f>
+        <v>8</v>
+      </c>
+      <c r="M12" s="4">
+        <f>IF(SUM(M$4:M$11)&gt;0, L$12-SUM(M$4:M$11), NA())</f>
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="e">
-        <f>IF(SUM(D$4:D$11)&gt;0, C$12-SUM(D$4:D$11), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="4" t="e">
-        <f t="shared" ref="E12:M12" si="0">IF(SUM(E$4:E$11)&gt;0, D$12-SUM(E$4:E$11), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.6">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4">
         <f>SUM(C4:C11)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
-        <v>45</v>
+        <f>SUM(C13-($C$13/10))</f>
+        <v>54</v>
       </c>
       <c r="E13" s="4">
-        <v>40</v>
+        <f t="shared" ref="E13:M13" si="0">SUM(D13-($C$13/10))</f>
+        <v>48</v>
       </c>
       <c r="F13" s="4">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H13" s="4">
-        <v>25</v>
-      </c>
       <c r="I13" s="4">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J13" s="4">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="K13" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="L13" s="4">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M13" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4452,342 +5100,15 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CBCA46-60F9-42C6-B53E-F5A57A8DA207}">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <f>SUM(C4:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="e">
-        <f t="shared" ref="D13:M13" si="0">IF(SUM(D$4:D$12)&gt;0, C$13-SUM(D$4:D$12), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUM(C4:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM(C14-5.6)</f>
-        <v>-5.6</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:L14" si="1">SUM(D14-5.6)</f>
-        <v>-11.2</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>-16.799999999999997</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>-22.4</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>-28</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>-33.6</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="1"/>
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>-44.800000000000004</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>-50.400000000000006</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{140b9f7d-8e3a-482f-9702-4b7ffc40985a}" enabled="1" method="Privileged" siteId="{5b6f6241-9a57-4be4-8e50-1dfa72e79a57}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>